--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2955.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2955.xlsx
@@ -354,7 +354,7 @@
         <v>2.852230082738576</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>2.124343536729017</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2955.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2955.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.188526172282831</v>
+        <v>0.4008786678314209</v>
       </c>
       <c r="B1">
-        <v>2.852230082738576</v>
+        <v>0.3498486280441284</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>3.725913286209106</v>
       </c>
       <c r="D1">
-        <v>2.124343536729017</v>
+        <v>3.359753370285034</v>
       </c>
       <c r="E1">
-        <v>1.21314471582046</v>
+        <v>0.9117211699485779</v>
       </c>
     </row>
   </sheetData>
